--- a/source_doc/grahique.xlsx
+++ b/source_doc/grahique.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Github\Public_Fractal_Julia\00_source_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Github\julia-mandelbrot-2D\source_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A966B84-FFA3-40D4-870E-627F7E5AE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E5B83-7DA6-4A82-AA30-9F20CFD73D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11055" xr2:uid="{0BC33957-83C7-40CC-8902-153BE9B49A0B}"/>
+    <workbookView minimized="1" xWindow="31380" yWindow="5925" windowWidth="18900" windowHeight="10710" xr2:uid="{0BC33957-83C7-40CC-8902-153BE9B49A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -8786,10 +8786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C4EFF3-8438-48DB-A382-1736E50BEAB5}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8906,7 +8906,7 @@
         <v>126.877696</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G36" si="5">F3/8</f>
+        <f t="shared" ref="G3:G38" si="5">F3/8</f>
         <v>15.859712</v>
       </c>
       <c r="H3" s="3">
@@ -10192,7 +10192,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34:C36" si="13">B34*A34</f>
+        <f t="shared" ref="C34:C35" si="13">B34*A34</f>
         <v>768768</v>
       </c>
       <c r="D34" s="2">
@@ -10204,7 +10204,7 @@
         <v>591004.23782399995</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ref="F34:F36" si="15">E34</f>
+        <f t="shared" ref="F34:F38" si="15">E34</f>
         <v>591004.23782399995</v>
       </c>
       <c r="G34" s="3">
@@ -10212,15 +10212,15 @@
         <v>73875.529727999994</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" ref="H34:H36" si="16">F34*1</f>
+        <f t="shared" ref="H34:H38" si="16">F34*1</f>
         <v>591004.23782399995</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34:I36" si="17">F34*4</f>
+        <f t="shared" ref="I34:I38" si="17">F34*4</f>
         <v>2364016.9512959998</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34:J36" si="18">I34*2</f>
+        <f t="shared" ref="J34:J38" si="18">I34*2</f>
         <v>4728033.9025919996</v>
       </c>
     </row>
@@ -10312,6 +10312,68 @@
       <c r="D37" s="1">
         <f>D36*D36*3/1000/1000</f>
         <v>2.0295187499999998</v>
+      </c>
+      <c r="E37" s="1">
+        <f>E36*E36*1000*1000*1000*1000</f>
+        <v>5.0320326814100095E+23</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="15"/>
+        <v>5.0320326814100095E+23</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2900408517625119E+22</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="16"/>
+        <v>5.0320326814100095E+23</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="17"/>
+        <v>2.0128130725640038E+24</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="18"/>
+        <v>4.0256261451280076E+24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <f>18446744073709500000</f>
+        <v>1.84467440737095E+19</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="15"/>
+        <v>1.84467440737095E+19</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3058430092136876E+18</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="16"/>
+        <v>1.84467440737095E+19</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="17"/>
+        <v>7.3786976294838002E+19</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="18"/>
+        <v>1.47573952589676E+20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <f>POWER(2,128)</f>
+        <v>3.4028236692093846E+38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <f>POWER(2,64)</f>
+        <v>1.8446744073709552E+19</v>
       </c>
     </row>
   </sheetData>
